--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358445A-25BF-E641-8267-3BB2C39CEC07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3265C26E-DCAD-DE49-98A6-1EBEF65A32AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36240" yWindow="9160" windowWidth="14260" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36240" yWindow="9160" windowWidth="14260" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
-    <t>-----------------------------------</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Code review by lab partner</t>
+  </si>
+  <si>
+    <t>Conterollers: debugging, action methods, and return types</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1004,38 +1004,38 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1090,12 +1090,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <f>SUM(B7:B15)</f>
@@ -1145,12 +1145,12 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3">
         <f>SUM(B19:B20)</f>
@@ -1190,12 +1190,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3">
         <f>SUM(B24:B25)</f>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="10">
         <f>SUM(B16,B21, B26)</f>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FE8FBD-3C9C-F84F-8CF1-73E172DCB999}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1335,38 +1335,38 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1421,12 +1421,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <f>SUM(B7:B15)</f>
@@ -1476,12 +1476,12 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3">
         <f>SUM(B19:B20)</f>
@@ -1521,12 +1521,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3">
         <f>SUM(B24:B25)</f>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="10">
         <f>SUM(B16,B21, B26)</f>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3265C26E-DCAD-DE49-98A6-1EBEF65A32AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523C88A-6070-AE4C-92D8-A85978F47E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36240" yWindow="9160" windowWidth="14260" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14260" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FE8FBD-3C9C-F84F-8CF1-73E172DCB999}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C26" s="3">
         <f>SUM(C24:C25)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C28" s="10">
         <f>SUM(C16,C21, C26)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523C88A-6070-AE4C-92D8-A85978F47E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB30AD68-48A5-2546-89E9-BD066D1C4AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14260" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
-    <sheet name="Student Score" sheetId="2" r:id="rId2"/>
+    <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+  <si>
+    <t>-----------------------------------</t>
+  </si>
   <si>
     <t>Actual</t>
   </si>
@@ -32,74 +35,77 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Lab 6, Both Groups</t>
-  </si>
-  <si>
-    <t>Request issues:</t>
-  </si>
-  <si>
-    <t>1. Link with invalid href</t>
-  </si>
-  <si>
-    <t>2. Get request with misspelled key name</t>
-  </si>
-  <si>
-    <t>3. Post request with invalid field name</t>
-  </si>
-  <si>
-    <t>4. Post request, for uses id instead of name</t>
-  </si>
-  <si>
-    <t>5 Post request with fields swapped (wrong values)</t>
-  </si>
-  <si>
-    <t>Response issues:</t>
-  </si>
-  <si>
-    <t>6. Missing view</t>
-  </si>
-  <si>
-    <t>7. View not sending correct Get parameters</t>
-  </si>
-  <si>
-    <t>8. View not responding to Post parameters</t>
-  </si>
-  <si>
-    <t>Part 1, Debugging</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Part 2, Controller Methods</t>
-  </si>
-  <si>
-    <t>Three new controller methods</t>
-  </si>
-  <si>
-    <t>Four new return types</t>
-  </si>
-  <si>
-    <t>Excellent work! Everything looks good!</t>
-  </si>
-  <si>
-    <t>4. Code Quality</t>
-  </si>
-  <si>
-    <t>Coding style and best practices</t>
-  </si>
-  <si>
-    <t>Code review by lab partner</t>
-  </si>
-  <si>
-    <t>Conterollers: debugging, action methods, and return types</t>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Code quality and style</t>
+  </si>
+  <si>
+    <t>Used best practices for coding</t>
+  </si>
+  <si>
+    <t>Completed code review of site</t>
+  </si>
+  <si>
+    <t>Data base stores:</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Messaage senders (users)</t>
+  </si>
+  <si>
+    <t>Group A, Community Site</t>
+  </si>
+  <si>
+    <t>Excellent work! Good job of adding a database!</t>
+  </si>
+  <si>
+    <t>Group B, Fan Site</t>
+  </si>
+  <si>
+    <t>Story authors (users)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Lab 6 Rubric</t>
+  </si>
+  <si>
+    <t>Group C, Info Site</t>
+  </si>
+  <si>
+    <t>Users (forum posters)</t>
+  </si>
+  <si>
+    <t>Part A, Chapter 4 exercise</t>
+  </si>
+  <si>
+    <t>Part B, Community Site</t>
+  </si>
+  <si>
+    <t>Part B, Fan Site</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Database works locally</t>
+  </si>
+  <si>
+    <t>Database works on Azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,6 +278,18 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,7 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -636,6 +654,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1002,576 +1023,1071 @@
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM(B11:B14)</f>
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C11:C14)</f>
+        <v>35</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(B18:B19)</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C18:C19)</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SUM(B7,B15,B20)</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="10">
+        <f>SUM(C7,C15,C20)</f>
+        <v>50</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <f>SUM(B33:B36)</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f>SUM(C33:C36)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B40:B41)</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C40:C41)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUM(B29,B37,B42)</f>
+        <v>50</v>
+      </c>
+      <c r="C44" s="10">
+        <f>SUM(C29,C37,C42)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1">
+      <c r="A53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="B59" s="3">
+        <f>SUM(B55:B58)</f>
+        <v>35</v>
+      </c>
+      <c r="C59" s="3">
+        <f>SUM(C55:C58)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <f>SUM(B62:B63)</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <f>SUM(C62:C63)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B7:B15)</f>
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <f>SUM(C7:C15)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <f>SUM(B19:B20)</f>
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C19:C20)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3">
-        <f>SUM(B24:B25)</f>
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <f>SUM(C24:C25)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="10">
-        <f>SUM(B16,B21, B26)</f>
+      <c r="B66" s="10">
+        <f>SUM(B51,B59,B64)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="10">
-        <f>SUM(C16,C21, C26)</f>
+      <c r="C66" s="10">
+        <f>SUM(C51,C59,C64)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="55" spans="1:3" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FE8FBD-3C9C-F84F-8CF1-73E172DCB999}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM(B11:B14)</f>
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C11:C14)</f>
+        <v>35</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(B18:B19)</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C18:C19)</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SUM(B7,B15,B20)</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="10">
+        <f>SUM(C7,C15,C20)</f>
+        <v>50</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <f>SUM(B33:B36)</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f>SUM(C33:C36)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B40:B41)</f>
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C40:C41)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUM(B29,B37,B42)</f>
+        <v>50</v>
+      </c>
+      <c r="C44" s="10">
+        <f>SUM(C29,C37,C42)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1">
+      <c r="A53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="B59" s="3">
+        <f>SUM(B55:B58)</f>
+        <v>35</v>
+      </c>
+      <c r="C59" s="3">
+        <f>SUM(C55:C58)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <f>SUM(B62:B63)</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <f>SUM(C62:C63)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B7:B15)</f>
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <f>SUM(C7:C15)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <f>SUM(B19:B20)</f>
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C19:C20)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3">
-        <f>SUM(B24:B25)</f>
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <f>SUM(C24:C25)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="10">
-        <f>SUM(B16,B21, B26)</f>
+      <c r="B66" s="10">
+        <f>SUM(B51,B59,B64)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="10">
-        <f>SUM(C16,C21, C26)</f>
+      <c r="C66" s="10">
+        <f>SUM(C51,C59,C64)</f>
         <v>50</v>
       </c>
     </row>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB30AD68-48A5-2546-89E9-BD066D1C4AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0902853-806B-4ACF-877C-8160E64B82C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41556" yWindow="-1188" windowWidth="11136" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -99,6 +110,30 @@
   </si>
   <si>
     <t>Database works on Azure</t>
+  </si>
+  <si>
+    <t>A page showing all messages</t>
+  </si>
+  <si>
+    <t>A page showing all stories</t>
+  </si>
+  <si>
+    <t>A page showing all comments</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>Comment is stored</t>
+  </si>
+  <si>
+    <t>Can't check</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>Good start.</t>
   </si>
 </sst>
 </file>
@@ -1018,12 +1053,12 @@
       <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1555,18 +1590,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1648,447 +1683,492 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
-        <f>SUM(B11:B14)</f>
+      <c r="B16" s="3">
+        <f>SUM(B11:B15)</f>
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <f>SUM(C11:C14)</f>
+      <c r="C16" s="3">
+        <f>SUM(C11:C15)</f>
         <v>35</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <f>SUM(B18:B19)</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <f>SUM(C18:C19)</f>
-        <v>5</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="B21" s="3">
+        <f>SUM(B19:B20)</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C19:C20)</f>
+        <v>5</v>
+      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10">
-        <f>SUM(B7,B15,B20)</f>
+      <c r="B23" s="10">
+        <f>SUM(B7,B16,B21)</f>
         <v>50</v>
       </c>
-      <c r="C22" s="10">
-        <f>SUM(C7,C15,C20)</f>
+      <c r="C23" s="10">
+        <f>SUM(C7,C16,C21)</f>
         <v>50</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="F30" s="6"/>
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4" t="s">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="13">
+        <v>5</v>
+      </c>
+      <c r="C36" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <f>SUM(B33:B36)</f>
+      <c r="B39" s="3">
+        <f>SUM(B34:B38)</f>
         <v>35</v>
       </c>
-      <c r="C37" s="3">
-        <f>SUM(C33:C36)</f>
+      <c r="C39" s="3">
+        <f>SUM(C34:C38)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:6">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="3">
-        <f>SUM(B40:B41)</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C40:C41)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="10">
-        <f>SUM(B29,B37,B42)</f>
-        <v>50</v>
-      </c>
-      <c r="C44" s="10">
-        <f>SUM(C29,C37,C42)</f>
-        <v>50</v>
+      <c r="B44" s="3">
+        <f>SUM(B42:B43)</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <f>SUM(C42:C43)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10">
+        <f>SUM(B30,B39,B44)</f>
+        <v>50</v>
+      </c>
+      <c r="C46" s="10">
+        <f>SUM(C30,C39,C44)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="4" customFormat="1">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B53"/>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="12" t="s">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B57">
-        <v>15</v>
-      </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="3">
-        <f>SUM(B55:B58)</f>
+      <c r="B62" s="3">
+        <f>SUM(B57:B61)</f>
         <v>35</v>
       </c>
-      <c r="C59" s="3">
-        <f>SUM(C55:C58)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
+      <c r="C62" s="3">
+        <f>SUM(C57:C61)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B62">
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="C65">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B63">
+      <c r="B66">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="C66">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="3">
-        <f>SUM(B62:B63)</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3">
-        <f>SUM(C62:C63)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="9" t="s">
+      <c r="B67" s="3">
+        <f>SUM(B65:B66)</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3">
+        <f>SUM(C65:C66)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="10">
-        <f>SUM(B51,B59,B64)</f>
+      <c r="B69" s="10">
+        <f>SUM(B53,B62,B67)</f>
         <v>50</v>
       </c>
-      <c r="C66" s="10">
-        <f>SUM(C51,C59,C64)</f>
-        <v>50</v>
+      <c r="C69" s="10">
+        <f>SUM(C53,C62,C67)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0902853-806B-4ACF-877C-8160E64B82C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8C54D-220F-4902-9B89-55E9DC93178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41556" yWindow="-1188" windowWidth="11136" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37116" yWindow="-2928" windowWidth="15696" windowHeight="13308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Used best practices for coding</t>
   </si>
   <si>
-    <t>Completed code review of site</t>
-  </si>
-  <si>
     <t>Data base stores:</t>
   </si>
   <si>
@@ -121,19 +118,13 @@
     <t>A page showing all comments</t>
   </si>
   <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>Comment is stored</t>
-  </si>
-  <si>
-    <t>Can't check</t>
-  </si>
-  <si>
     <t>Not done</t>
   </si>
   <si>
     <t>Good start.</t>
+  </si>
+  <si>
+    <t>Used correct style</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1060,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1070,12 +1061,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1083,7 +1074,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1106,18 +1097,18 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13">
         <v>5</v>
@@ -1129,7 +1120,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
@@ -1140,18 +1131,18 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1161,87 +1152,96 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
-        <f>SUM(B11:B14)</f>
+      <c r="B16" s="3">
+        <f>SUM(B11:B15)</f>
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <f>SUM(C11:C14)</f>
+      <c r="C16" s="3">
+        <f>SUM(C11:C15)</f>
         <v>35</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <f>SUM(B18:B19)</f>
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <f>SUM(C18:C19)</f>
-        <v>5</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="B21" s="3">
+        <f>SUM(B19:B20)</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C19:C20)</f>
+        <v>5</v>
+      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10">
-        <f>SUM(B7,B15,B20)</f>
+      <c r="B23" s="10">
+        <f>SUM(B7,B16,B21)</f>
         <v>50</v>
       </c>
-      <c r="C22" s="10">
-        <f>SUM(C7,C15,C20)</f>
+      <c r="C23" s="10">
+        <f>SUM(C7,C16,C21)</f>
         <v>50</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
@@ -1249,19 +1249,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1287,18 +1287,18 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1321,18 +1321,18 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5</v>
+      </c>
+      <c r="C35" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1342,80 +1342,88 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <f>SUM(B33:B36)</f>
+      <c r="B38" s="3">
+        <f>SUM(B33:B37)</f>
         <v>35</v>
       </c>
-      <c r="C37" s="3">
-        <f>SUM(C33:C36)</f>
+      <c r="C38" s="3">
+        <f>SUM(C33:C37)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="3">
-        <f>SUM(B40:B41)</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C40:C41)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
+      <c r="B43" s="3">
+        <f>SUM(B41:B42)</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <f>SUM(C41:C42)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="10">
-        <f>SUM(B29,B37,B42)</f>
+      <c r="B45" s="10">
+        <f>SUM(B29,B38,B43)</f>
         <v>50</v>
       </c>
-      <c r="C44" s="10">
-        <f>SUM(C29,C37,C42)</f>
+      <c r="C45" s="10">
+        <f>SUM(C29,C38,C43)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
@@ -1424,17 +1432,17 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1456,19 +1464,19 @@
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1">
       <c r="A53" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1479,7 +1487,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -1490,18 +1498,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1511,75 +1519,86 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="3">
-        <f>SUM(B55:B58)</f>
+      <c r="B60" s="3">
+        <f>SUM(B55:B59)</f>
         <v>35</v>
       </c>
-      <c r="C59" s="3">
-        <f>SUM(C55:C58)</f>
+      <c r="C60" s="3">
+        <f>SUM(C55:C59)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="3">
-        <f>SUM(B62:B63)</f>
-        <v>5</v>
-      </c>
-      <c r="C64" s="3">
-        <f>SUM(C62:C63)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
+      <c r="B65" s="3">
+        <f>SUM(B63:B64)</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="3">
+        <f>SUM(C63:C64)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="10">
-        <f>SUM(B51,B59,B64)</f>
+      <c r="B67" s="10">
+        <f>SUM(B51,B60,B65)</f>
         <v>50</v>
       </c>
-      <c r="C66" s="10">
-        <f>SUM(C51,C59,C64)</f>
+      <c r="C67" s="10">
+        <f>SUM(C51,C60,C65)</f>
         <v>50</v>
       </c>
     </row>
@@ -1592,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1603,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1613,12 +1632,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1626,7 +1645,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1649,18 +1668,18 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13">
         <v>5</v>
@@ -1672,7 +1691,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
@@ -1683,7 +1702,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="13">
         <v>5</v>
@@ -1694,7 +1713,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1705,7 +1724,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1752,8 +1771,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>8</v>
+      <c r="A20" t="s">
+        <v>30</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1803,19 +1822,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1833,7 +1852,10 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1841,18 +1863,18 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1864,7 +1886,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1875,7 +1897,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
@@ -1886,7 +1908,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -1897,7 +1919,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1940,8 +1962,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6" t="s">
-        <v>8</v>
+      <c r="A43" t="s">
+        <v>30</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1976,7 +1998,7 @@
       </c>
       <c r="C46" s="10">
         <f>SUM(C30,C39,C44)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1987,19 +2009,19 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -2008,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2016,27 +2038,24 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="4" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="4" customFormat="1">
       <c r="A55" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2045,9 +2064,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2056,49 +2075,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:3">
       <c r="A59" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="B61">
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
         <v>4</v>
       </c>
@@ -2108,14 +2118,14 @@
       </c>
       <c r="C62" s="3">
         <f>SUM(C57:C61)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>6</v>
       </c>
@@ -2132,8 +2142,8 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>8</v>
+      <c r="A66" t="s">
+        <v>30</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2168,7 +2178,7 @@
       </c>
       <c r="C69" s="10">
         <f>SUM(C53,C62,C67)</f>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8C54D-220F-4902-9B89-55E9DC93178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F3714-A838-B24F-A920-1D7923B5B870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37116" yWindow="-2928" windowWidth="15696" windowHeight="13308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16300" yWindow="500" windowWidth="12500" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -1038,18 +1027,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.296875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1065,540 +1054,453 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(B9:B13)</f>
+        <v>35</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
-        <f>SUM(B11:B15)</f>
-        <v>35</v>
-      </c>
-      <c r="C16" s="3">
-        <f>SUM(C11:C15)</f>
-        <v>35</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <f>SUM(B17:B18)</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
+      <c r="B21" s="10">
+        <f>SUM(B5,B14,B19)</f>
+        <v>50</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <f>SUM(B19:B20)</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C19:C20)</f>
-        <v>5</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="10">
-        <f>SUM(B7,B16,B21)</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="10">
-        <f>SUM(C7,C16,C21)</f>
-        <v>50</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" s="6"/>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6"/>
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="F30" s="6"/>
+      <c r="A30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="13">
+        <v>5</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <f>SUM(B29:B33)</f>
+        <v>35</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <f>SUM(B37:B38)</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10">
+        <f>SUM(B25,B34,B39)</f>
+        <v>50</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1">
+      <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="13">
-        <v>5</v>
-      </c>
-      <c r="C35" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3">
-        <f>SUM(B33:B37)</f>
+      <c r="B54" s="3">
+        <f>SUM(B49:B53)</f>
         <v>35</v>
       </c>
-      <c r="C38" s="3">
-        <f>SUM(C33:C37)</f>
+      <c r="C54" s="3">
+        <f>SUM(C49:C53)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
+    <row r="55" spans="1:3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B57">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C57">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>30</v>
       </c>
-      <c r="B42">
+      <c r="B58">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C58">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3">
-        <f>SUM(B41:B42)</f>
-        <v>5</v>
-      </c>
-      <c r="C43" s="3">
-        <f>SUM(C41:C42)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="9" t="s">
+      <c r="B59" s="3">
+        <f>SUM(B57:B58)</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <f>SUM(C57:C58)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="10">
-        <f>SUM(B29,B38,B43)</f>
+      <c r="B61" s="10">
+        <f>SUM(B45,B54,B59)</f>
         <v>50</v>
       </c>
-      <c r="C45" s="10">
-        <f>SUM(C29,C38,C43)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="4" customFormat="1">
-      <c r="A53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3">
-        <f>SUM(B55:B59)</f>
-        <v>35</v>
-      </c>
-      <c r="C60" s="3">
-        <f>SUM(C55:C59)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="3">
-        <f>SUM(B63:B64)</f>
-        <v>5</v>
-      </c>
-      <c r="C65" s="3">
-        <f>SUM(C63:C64)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="10">
-        <f>SUM(B51,B60,B65)</f>
-        <v>50</v>
-      </c>
-      <c r="C67" s="10">
-        <f>SUM(C51,C60,C65)</f>
+      <c r="C61" s="10">
+        <f>SUM(C45,C54,C59)</f>
         <v>50</v>
       </c>
     </row>
@@ -1615,12 +1517,12 @@
       <selection activeCell="A6" sqref="A6:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.296875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/Labs/Lab06/Lab6Rubric_CS295N.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F3714-A838-B24F-A920-1D7923B5B870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA03845-CABE-B746-944A-7B5359A4BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="500" windowWidth="12500" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16300" yWindow="500" windowWidth="12500" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -105,9 +118,6 @@
   </si>
   <si>
     <t>A page showing all comments</t>
-  </si>
-  <si>
-    <t>Not done</t>
   </si>
   <si>
     <t>Good start.</t>
@@ -651,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -670,7 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1029,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1085,32 +1094,32 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13"/>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -1118,13 +1127,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -1159,7 +1167,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1242,7 +1250,7 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30">
@@ -1250,16 +1258,16 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
-        <v>5</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
       <c r="B32">
@@ -1267,7 +1275,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
       <c r="B33">
@@ -1303,7 +1311,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1388,7 +1396,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50">
@@ -1399,7 +1407,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
       <c r="B51">
@@ -1410,7 +1418,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52">
@@ -1421,7 +1429,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53">
@@ -1466,7 +1474,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1513,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1583,38 +1591,38 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12">
         <v>5</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14">
@@ -1625,7 +1633,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15">
@@ -1647,7 +1655,6 @@
         <f>SUM(C11:C15)</f>
         <v>35</v>
       </c>
-      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="3"/>
@@ -1674,7 +1681,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1754,10 +1761,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1787,7 +1791,7 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35">
@@ -1798,18 +1802,18 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="13">
-        <v>5</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B36" s="12">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37">
@@ -1820,7 +1824,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
       <c r="B38">
@@ -1865,7 +1869,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1900,7 +1904,7 @@
       </c>
       <c r="C46" s="10">
         <f>SUM(C30,C39,C44)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1918,7 +1922,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1967,7 +1971,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58">
@@ -1978,7 +1982,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>27</v>
       </c>
       <c r="B59">
@@ -1989,7 +1993,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
       <c r="B60">
@@ -2000,7 +2004,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
       <c r="B61">
@@ -2045,7 +2049,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66">
         <v>2</v>
